--- a/data/pca/factorExposure/factorExposure_2009-09-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01761528773963981</v>
+        <v>0.01647365102385691</v>
       </c>
       <c r="C2">
-        <v>-0.001725092897204188</v>
+        <v>-0.0008228027686245643</v>
       </c>
       <c r="D2">
-        <v>-0.0005002149847838448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009175716131554526</v>
+      </c>
+      <c r="E2">
+        <v>-0.001750098030139143</v>
+      </c>
+      <c r="F2">
+        <v>-0.0127148615312175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09778756657454632</v>
+        <v>0.09394115384969298</v>
       </c>
       <c r="C4">
-        <v>-0.02122925088888133</v>
+        <v>-0.01451021591623898</v>
       </c>
       <c r="D4">
-        <v>0.06809373765958754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08414990396885612</v>
+      </c>
+      <c r="E4">
+        <v>-0.02859393561609298</v>
+      </c>
+      <c r="F4">
+        <v>0.03175539468131582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1473231845534751</v>
+        <v>0.1590327310949857</v>
       </c>
       <c r="C6">
-        <v>-0.0264444268234577</v>
+        <v>-0.026617918664862</v>
       </c>
       <c r="D6">
-        <v>-0.02195037547133869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02376688331511146</v>
+      </c>
+      <c r="E6">
+        <v>-0.01078409176089927</v>
+      </c>
+      <c r="F6">
+        <v>0.04287056558799258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06544463927913137</v>
+        <v>0.06359886799303398</v>
       </c>
       <c r="C7">
-        <v>-0.003526302239223291</v>
+        <v>0.001621768997102305</v>
       </c>
       <c r="D7">
-        <v>0.03818326681677447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05238380649689148</v>
+      </c>
+      <c r="E7">
+        <v>-0.01206910260791385</v>
+      </c>
+      <c r="F7">
+        <v>0.0470720824013502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06600085233572651</v>
+        <v>0.05761770093098941</v>
       </c>
       <c r="C8">
-        <v>0.00983588321362115</v>
+        <v>0.01325063506511167</v>
       </c>
       <c r="D8">
-        <v>0.01765680689464304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03240198052790411</v>
+      </c>
+      <c r="E8">
+        <v>-0.01783796097071882</v>
+      </c>
+      <c r="F8">
+        <v>-0.02686938276890588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07577660554203683</v>
+        <v>0.07091509863959525</v>
       </c>
       <c r="C9">
-        <v>-0.01778799584065837</v>
+        <v>-0.01025348389385868</v>
       </c>
       <c r="D9">
-        <v>0.06817886431659066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08705684977930341</v>
+      </c>
+      <c r="E9">
+        <v>-0.02328819801848094</v>
+      </c>
+      <c r="F9">
+        <v>0.04730612818215953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08108320753047958</v>
+        <v>0.09139019800153893</v>
       </c>
       <c r="C10">
-        <v>-0.009488069658379551</v>
+        <v>-0.02094769291744554</v>
       </c>
       <c r="D10">
-        <v>-0.1706155284955819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1642560967898822</v>
+      </c>
+      <c r="E10">
+        <v>0.03281996407077329</v>
+      </c>
+      <c r="F10">
+        <v>-0.05512713613006024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09471826080540514</v>
+        <v>0.08814049614199725</v>
       </c>
       <c r="C11">
-        <v>-0.01846533653395246</v>
+        <v>-0.01035874832413745</v>
       </c>
       <c r="D11">
-        <v>0.09709295937597824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171115542427258</v>
+      </c>
+      <c r="E11">
+        <v>-0.04564121362326032</v>
+      </c>
+      <c r="F11">
+        <v>0.02265657823027544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1007519742835241</v>
+        <v>0.09200925203058791</v>
       </c>
       <c r="C12">
-        <v>-0.01684074598791209</v>
+        <v>-0.00773195675963971</v>
       </c>
       <c r="D12">
-        <v>0.09705749943851938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317794924759004</v>
+      </c>
+      <c r="E12">
+        <v>-0.04569308382948593</v>
+      </c>
+      <c r="F12">
+        <v>0.02933034600587509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04225804092532984</v>
+        <v>0.04143924062696031</v>
       </c>
       <c r="C13">
-        <v>-0.006349346241182777</v>
+        <v>-0.002384108826706625</v>
       </c>
       <c r="D13">
-        <v>0.03234652332684575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05335513257758851</v>
+      </c>
+      <c r="E13">
+        <v>0.00444022252665144</v>
+      </c>
+      <c r="F13">
+        <v>0.00259483506604012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02168922416892638</v>
+        <v>0.02388632071939757</v>
       </c>
       <c r="C14">
-        <v>-0.01534350433448802</v>
+        <v>-0.01378388570589596</v>
       </c>
       <c r="D14">
-        <v>0.02479241725406883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03301093436389591</v>
+      </c>
+      <c r="E14">
+        <v>-0.01840885325582365</v>
+      </c>
+      <c r="F14">
+        <v>0.01342076680126983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03591106584714122</v>
+        <v>0.03287373358433117</v>
       </c>
       <c r="C15">
-        <v>-0.008128697002079452</v>
+        <v>-0.004634466594876655</v>
       </c>
       <c r="D15">
-        <v>0.02583198062680262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04534119787282222</v>
+      </c>
+      <c r="E15">
+        <v>-0.006151650134220205</v>
+      </c>
+      <c r="F15">
+        <v>0.02529975016329631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08072945144217937</v>
+        <v>0.07424806928593264</v>
       </c>
       <c r="C16">
-        <v>-0.009445431739653903</v>
+        <v>-0.0009055289933530197</v>
       </c>
       <c r="D16">
-        <v>0.09985795414182613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276139598871633</v>
+      </c>
+      <c r="E16">
+        <v>-0.05993498268847136</v>
+      </c>
+      <c r="F16">
+        <v>0.02664625766541192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006961646708745004</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001727613975868922</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00126173565294805</v>
+      </c>
+      <c r="E17">
+        <v>-0.000734565359434708</v>
+      </c>
+      <c r="F17">
+        <v>-0.001174263623059306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01194729636376005</v>
+        <v>0.03630576389036553</v>
       </c>
       <c r="C18">
-        <v>0.001555547410319023</v>
+        <v>0.002971297609933718</v>
       </c>
       <c r="D18">
-        <v>0.01228210563760081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01625169114777278</v>
+      </c>
+      <c r="E18">
+        <v>0.008394210196972325</v>
+      </c>
+      <c r="F18">
+        <v>-0.009650793902756166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06492669041561154</v>
+        <v>0.06180439956067531</v>
       </c>
       <c r="C20">
-        <v>-0.007338324753090393</v>
+        <v>3.032973391395238e-06</v>
       </c>
       <c r="D20">
-        <v>0.04759889557009971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07828394218978284</v>
+      </c>
+      <c r="E20">
+        <v>-0.05610955090401978</v>
+      </c>
+      <c r="F20">
+        <v>0.0260678675807211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04480702139786363</v>
+        <v>0.04082545998236115</v>
       </c>
       <c r="C21">
-        <v>-0.01040565970493655</v>
+        <v>-0.006421817597283716</v>
       </c>
       <c r="D21">
-        <v>0.01693481778583835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03788833970274361</v>
+      </c>
+      <c r="E21">
+        <v>0.001825130896049301</v>
+      </c>
+      <c r="F21">
+        <v>-0.02469194668618496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0416501103399643</v>
+        <v>0.04348302756186911</v>
       </c>
       <c r="C22">
-        <v>-0.0003580899012276723</v>
+        <v>-0.0003006147449300095</v>
       </c>
       <c r="D22">
-        <v>-0.008552885222854377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004534132273651184</v>
+      </c>
+      <c r="E22">
+        <v>-0.03701586320468615</v>
+      </c>
+      <c r="F22">
+        <v>-0.03882174853231001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0416124776585533</v>
+        <v>0.04345873823310593</v>
       </c>
       <c r="C23">
-        <v>-0.0003488339094537593</v>
+        <v>-0.0002920952597170539</v>
       </c>
       <c r="D23">
-        <v>-0.00852471069177759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004549752379072962</v>
+      </c>
+      <c r="E23">
+        <v>-0.03719900107246913</v>
+      </c>
+      <c r="F23">
+        <v>-0.03878543669977162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08636710284844319</v>
+        <v>0.08000485202344529</v>
       </c>
       <c r="C24">
-        <v>-0.00992439215446366</v>
+        <v>-0.001589548427588355</v>
       </c>
       <c r="D24">
-        <v>0.1056279976940569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206399285585009</v>
+      </c>
+      <c r="E24">
+        <v>-0.04834416874382147</v>
+      </c>
+      <c r="F24">
+        <v>0.02791483605839488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09145054226084011</v>
+        <v>0.08512380779162926</v>
       </c>
       <c r="C25">
-        <v>-0.01215372033541896</v>
+        <v>-0.004265298065939759</v>
       </c>
       <c r="D25">
-        <v>0.08991514749625819</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1097686371260615</v>
+      </c>
+      <c r="E25">
+        <v>-0.03191597625935215</v>
+      </c>
+      <c r="F25">
+        <v>0.0273862883522655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05851884028128725</v>
+        <v>0.05897524314096585</v>
       </c>
       <c r="C26">
-        <v>-0.01835430893271187</v>
+        <v>-0.01440930958091532</v>
       </c>
       <c r="D26">
-        <v>0.01587043623309361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04104298288620512</v>
+      </c>
+      <c r="E26">
+        <v>-0.02813525496331102</v>
+      </c>
+      <c r="F26">
+        <v>-0.007663957471142623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1309708412468139</v>
+        <v>0.1424820612027372</v>
       </c>
       <c r="C28">
-        <v>-0.006750694689190877</v>
+        <v>-0.02241377550108261</v>
       </c>
       <c r="D28">
-        <v>-0.2801634284345907</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2614527693481953</v>
+      </c>
+      <c r="E28">
+        <v>0.06739125460066588</v>
+      </c>
+      <c r="F28">
+        <v>0.007322552612840023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0268948331576863</v>
+        <v>0.02857748722037949</v>
       </c>
       <c r="C29">
-        <v>-0.01000224897839308</v>
+        <v>-0.008686971613566304</v>
       </c>
       <c r="D29">
-        <v>0.02060475768722854</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03119715381494751</v>
+      </c>
+      <c r="E29">
+        <v>-0.01346810767051836</v>
+      </c>
+      <c r="F29">
+        <v>-0.01336032700758385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06950873427060458</v>
+        <v>0.05872347882295215</v>
       </c>
       <c r="C30">
-        <v>-0.0101405720620506</v>
+        <v>-0.002497035950929473</v>
       </c>
       <c r="D30">
-        <v>0.07508774006340099</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08937461551984356</v>
+      </c>
+      <c r="E30">
+        <v>-0.01545937522922295</v>
+      </c>
+      <c r="F30">
+        <v>0.07733519733611482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05168374104529613</v>
+        <v>0.05111912440282665</v>
       </c>
       <c r="C31">
-        <v>-0.0169480090246277</v>
+        <v>-0.01551504514329924</v>
       </c>
       <c r="D31">
-        <v>0.0217993815090677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0248944423394436</v>
+      </c>
+      <c r="E31">
+        <v>-0.02874099572900107</v>
+      </c>
+      <c r="F31">
+        <v>-0.00132988152202501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04746620297895034</v>
+        <v>0.05124064269266324</v>
       </c>
       <c r="C32">
-        <v>-0.001918639746317225</v>
+        <v>0.001876280268044693</v>
       </c>
       <c r="D32">
-        <v>0.02331845230281316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03640429330238268</v>
+      </c>
+      <c r="E32">
+        <v>-0.0343180154772041</v>
+      </c>
+      <c r="F32">
+        <v>0.003043289288170007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09365055626142807</v>
+        <v>0.08840165224328428</v>
       </c>
       <c r="C33">
-        <v>-0.01453236189835299</v>
+        <v>-0.006553760660495799</v>
       </c>
       <c r="D33">
-        <v>0.07991352703154256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1020603439944501</v>
+      </c>
+      <c r="E33">
+        <v>-0.04346905474615953</v>
+      </c>
+      <c r="F33">
+        <v>0.0394569158057821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07415838280736033</v>
+        <v>0.06785708417521251</v>
       </c>
       <c r="C34">
-        <v>-0.01667860530166534</v>
+        <v>-0.01000943508696932</v>
       </c>
       <c r="D34">
-        <v>0.08675241872185713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1098178636836578</v>
+      </c>
+      <c r="E34">
+        <v>-0.03394492784256391</v>
+      </c>
+      <c r="F34">
+        <v>0.03343448622928406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02448043421015216</v>
+        <v>0.02534596591450237</v>
       </c>
       <c r="C35">
-        <v>-0.00260164305164422</v>
+        <v>-0.002553819602765661</v>
       </c>
       <c r="D35">
-        <v>0.006377556477186565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01151805845020847</v>
+      </c>
+      <c r="E35">
+        <v>-0.01196187007966335</v>
+      </c>
+      <c r="F35">
+        <v>0.001085468522271975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02563792611021387</v>
+        <v>0.02757499467848667</v>
       </c>
       <c r="C36">
-        <v>-0.009019726285885111</v>
+        <v>-0.006810654508816918</v>
       </c>
       <c r="D36">
-        <v>0.03166971198210721</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03996621157123518</v>
+      </c>
+      <c r="E36">
+        <v>-0.01662842257799456</v>
+      </c>
+      <c r="F36">
+        <v>0.01566156179570815</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004175792038542189</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006170393605560009</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00226906422375251</v>
+      </c>
+      <c r="E37">
+        <v>0.001300266987230129</v>
+      </c>
+      <c r="F37">
+        <v>-0.0004711663983106349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0003326001675202969</v>
+        <v>0.0003165598429303996</v>
       </c>
       <c r="C38">
-        <v>-6.351095757794552e-05</v>
+        <v>-0.0001152307139044703</v>
       </c>
       <c r="D38">
-        <v>-0.001881033964892672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.00136099204114307</v>
+      </c>
+      <c r="E38">
+        <v>0.0008838622677255492</v>
+      </c>
+      <c r="F38">
+        <v>0.0003490063438199466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1195691196451513</v>
+        <v>0.1041966383380402</v>
       </c>
       <c r="C39">
-        <v>-0.02568352993183228</v>
+        <v>-0.01550402111995165</v>
       </c>
       <c r="D39">
-        <v>0.1423725238211739</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1546640406475838</v>
+      </c>
+      <c r="E39">
+        <v>-0.05906785899258629</v>
+      </c>
+      <c r="F39">
+        <v>0.02989258054736209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03672082694883523</v>
+        <v>0.04120090429188136</v>
       </c>
       <c r="C40">
-        <v>-0.01012578847548308</v>
+        <v>-0.007058819446942451</v>
       </c>
       <c r="D40">
-        <v>0.0004486833357461291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03124920411611037</v>
+      </c>
+      <c r="E40">
+        <v>-0.001730213722384984</v>
+      </c>
+      <c r="F40">
+        <v>-0.01634684455720469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02470122954670453</v>
+        <v>0.02776671145831465</v>
       </c>
       <c r="C41">
-        <v>-0.007502650921373747</v>
+        <v>-0.006811456211493037</v>
       </c>
       <c r="D41">
-        <v>0.007614027498720729</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01124945640090606</v>
+      </c>
+      <c r="E41">
+        <v>-0.0124740328589764</v>
+      </c>
+      <c r="F41">
+        <v>-0.005966665623384656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04243880534430264</v>
+        <v>0.04061955919450581</v>
       </c>
       <c r="C43">
-        <v>-0.008533623275988732</v>
+        <v>-0.007048835461187707</v>
       </c>
       <c r="D43">
-        <v>0.01163523927363402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01887170772096048</v>
+      </c>
+      <c r="E43">
+        <v>-0.02526015881587766</v>
+      </c>
+      <c r="F43">
+        <v>-0.01214029252864702</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08232884950449508</v>
+        <v>0.07932928030462026</v>
       </c>
       <c r="C44">
-        <v>-0.02773720048616816</v>
+        <v>-0.01920335598564722</v>
       </c>
       <c r="D44">
-        <v>0.07723125402642579</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09744194402548428</v>
+      </c>
+      <c r="E44">
+        <v>-0.06102631556822997</v>
+      </c>
+      <c r="F44">
+        <v>0.1562403452461897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01985255665758291</v>
+        <v>0.02309699765951374</v>
       </c>
       <c r="C46">
-        <v>-0.003999349036913263</v>
+        <v>-0.003220734091650578</v>
       </c>
       <c r="D46">
-        <v>0.001961168739937365</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01363936960553576</v>
+      </c>
+      <c r="E46">
+        <v>-0.02599602875010233</v>
+      </c>
+      <c r="F46">
+        <v>-0.005797295898663602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05348181804886514</v>
+        <v>0.05280294691457425</v>
       </c>
       <c r="C47">
-        <v>-0.004626205034704812</v>
+        <v>-0.003629517852631274</v>
       </c>
       <c r="D47">
-        <v>0.002874920505122765</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01253353552929392</v>
+      </c>
+      <c r="E47">
+        <v>-0.02401913228685562</v>
+      </c>
+      <c r="F47">
+        <v>-0.03162555818281056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04963052630294197</v>
+        <v>0.05039479858014032</v>
       </c>
       <c r="C48">
-        <v>-0.006133295094668101</v>
+        <v>-0.002192334097460889</v>
       </c>
       <c r="D48">
-        <v>0.03755003348064109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05064876517833244</v>
+      </c>
+      <c r="E48">
+        <v>0.004683885719304138</v>
+      </c>
+      <c r="F48">
+        <v>0.00975040939745736</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2015392454904213</v>
+        <v>0.1999296365445866</v>
       </c>
       <c r="C49">
-        <v>-0.01870235949547508</v>
+        <v>-0.0188935617988932</v>
       </c>
       <c r="D49">
-        <v>-0.007710127537099544</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007056145787422805</v>
+      </c>
+      <c r="E49">
+        <v>-0.03033267854828103</v>
+      </c>
+      <c r="F49">
+        <v>0.03883339096215301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05084660425218361</v>
+        <v>0.05142153593356082</v>
       </c>
       <c r="C50">
-        <v>-0.0130165373249619</v>
+        <v>-0.011223154554028</v>
       </c>
       <c r="D50">
-        <v>0.02184963559634217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0244049096211285</v>
+      </c>
+      <c r="E50">
+        <v>-0.03024462593630634</v>
+      </c>
+      <c r="F50">
+        <v>0.009534789109419862</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1555894963264771</v>
+        <v>0.1487996609053845</v>
       </c>
       <c r="C52">
-        <v>-0.01890989625321312</v>
+        <v>-0.01733531941256431</v>
       </c>
       <c r="D52">
-        <v>0.05509886404609848</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04205455640461878</v>
+      </c>
+      <c r="E52">
+        <v>-0.02092413263157047</v>
+      </c>
+      <c r="F52">
+        <v>0.04359298477039835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.172640763684682</v>
+        <v>0.1711840853542331</v>
       </c>
       <c r="C53">
-        <v>-0.01761775189967477</v>
+        <v>-0.01980118410558707</v>
       </c>
       <c r="D53">
-        <v>0.03129931067465653</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00493700959353609</v>
+      </c>
+      <c r="E53">
+        <v>-0.02930582087719325</v>
+      </c>
+      <c r="F53">
+        <v>0.07510021372053603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0199561547181966</v>
+        <v>0.0203325251252308</v>
       </c>
       <c r="C54">
-        <v>-0.01265607361774291</v>
+        <v>-0.01118386059301849</v>
       </c>
       <c r="D54">
-        <v>0.02614275973768937</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03430907664560714</v>
+      </c>
+      <c r="E54">
+        <v>-0.02185416586382206</v>
+      </c>
+      <c r="F54">
+        <v>-0.006201767102450275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1157358934469398</v>
+        <v>0.1146917388519684</v>
       </c>
       <c r="C55">
-        <v>-0.01629058215754639</v>
+        <v>-0.01748210966301302</v>
       </c>
       <c r="D55">
-        <v>0.02448136370385749</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007256985446742473</v>
+      </c>
+      <c r="E55">
+        <v>-0.0241039288464883</v>
+      </c>
+      <c r="F55">
+        <v>0.04725924160251758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1789509621068404</v>
+        <v>0.176815263169665</v>
       </c>
       <c r="C56">
-        <v>-0.01571340594968717</v>
+        <v>-0.01762361893513412</v>
       </c>
       <c r="D56">
-        <v>0.01690782324193992</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002129950180579587</v>
+      </c>
+      <c r="E56">
+        <v>-0.03387824811612451</v>
+      </c>
+      <c r="F56">
+        <v>0.05282129080574272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04718101136802446</v>
+        <v>0.04511039676726415</v>
       </c>
       <c r="C58">
-        <v>-0.006659971330733494</v>
+        <v>0.0003881779069881715</v>
       </c>
       <c r="D58">
-        <v>0.0518857879657967</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07147279390239658</v>
+      </c>
+      <c r="E58">
+        <v>-0.03217197837585841</v>
+      </c>
+      <c r="F58">
+        <v>-0.03868786417240131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1605129755928475</v>
+        <v>0.1678991937472368</v>
       </c>
       <c r="C59">
-        <v>-0.008263698450846761</v>
+        <v>-0.02255135275508477</v>
       </c>
       <c r="D59">
-        <v>-0.2281542679414758</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2171582170027195</v>
+      </c>
+      <c r="E59">
+        <v>0.04557744076907066</v>
+      </c>
+      <c r="F59">
+        <v>-0.036282980695874</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2381903523325526</v>
+        <v>0.2318331691290841</v>
       </c>
       <c r="C60">
-        <v>0.0006468527005809346</v>
+        <v>0.002192015261640143</v>
       </c>
       <c r="D60">
-        <v>0.05733367883041551</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04119999084331507</v>
+      </c>
+      <c r="E60">
+        <v>-0.0088015994519545</v>
+      </c>
+      <c r="F60">
+        <v>-0.004351784195714263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09058041200986487</v>
+        <v>0.08012438880647871</v>
       </c>
       <c r="C61">
-        <v>-0.01907642532811362</v>
+        <v>-0.0111197483996232</v>
       </c>
       <c r="D61">
-        <v>0.09638868996800545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178801758016596</v>
+      </c>
+      <c r="E61">
+        <v>-0.03885444063157835</v>
+      </c>
+      <c r="F61">
+        <v>0.01346695302368074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1714740015826318</v>
+        <v>0.1695519048623976</v>
       </c>
       <c r="C62">
-        <v>-0.01970958572423072</v>
+        <v>-0.02069416334769819</v>
       </c>
       <c r="D62">
-        <v>0.01089341955269337</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005214325598787049</v>
+      </c>
+      <c r="E62">
+        <v>-0.03369003092619189</v>
+      </c>
+      <c r="F62">
+        <v>0.03602577404489072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04498653764512189</v>
+        <v>0.04554365679960009</v>
       </c>
       <c r="C63">
-        <v>-0.006420540487758679</v>
+        <v>-0.001626504699140882</v>
       </c>
       <c r="D63">
-        <v>0.04175638679699938</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05922123672643718</v>
+      </c>
+      <c r="E63">
+        <v>-0.02315701921721426</v>
+      </c>
+      <c r="F63">
+        <v>0.0030169469919333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1111369325178001</v>
+        <v>0.1106279255593803</v>
       </c>
       <c r="C64">
-        <v>-0.01503380188702273</v>
+        <v>-0.0114348323876742</v>
       </c>
       <c r="D64">
-        <v>0.02757154993311229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04344734101122241</v>
+      </c>
+      <c r="E64">
+        <v>-0.02257251871460522</v>
+      </c>
+      <c r="F64">
+        <v>0.0248173487359506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1384926667077379</v>
+        <v>0.1505843478874348</v>
       </c>
       <c r="C65">
-        <v>-0.03176631649250908</v>
+        <v>-0.03409099205387295</v>
       </c>
       <c r="D65">
-        <v>-0.04582400868099115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0441090929797606</v>
+      </c>
+      <c r="E65">
+        <v>-0.006514812287926992</v>
+      </c>
+      <c r="F65">
+        <v>0.03676071955126494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1441846120976714</v>
+        <v>0.1238655797538409</v>
       </c>
       <c r="C66">
-        <v>-0.02313344664194572</v>
+        <v>-0.013450164328616</v>
       </c>
       <c r="D66">
-        <v>0.1199823663404957</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1428537343687957</v>
+      </c>
+      <c r="E66">
+        <v>-0.06502482706309207</v>
+      </c>
+      <c r="F66">
+        <v>0.03432455436568983</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06450624679894754</v>
+        <v>0.05767708436143373</v>
       </c>
       <c r="C67">
-        <v>-0.005956018770897578</v>
+        <v>-0.002879807624774505</v>
       </c>
       <c r="D67">
-        <v>0.05700092067389356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05529831088765439</v>
+      </c>
+      <c r="E67">
+        <v>-0.01642483678332096</v>
+      </c>
+      <c r="F67">
+        <v>-0.0311197725892485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1030975414726067</v>
+        <v>0.1166671192037628</v>
       </c>
       <c r="C68">
-        <v>-0.01688398497750876</v>
+        <v>-0.03314527998583862</v>
       </c>
       <c r="D68">
-        <v>-0.2764230206353996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2612818351684156</v>
+      </c>
+      <c r="E68">
+        <v>0.08719393610731024</v>
+      </c>
+      <c r="F68">
+        <v>0.002737024150575194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04101421666557565</v>
+        <v>0.03918180008414018</v>
       </c>
       <c r="C69">
-        <v>-0.001263945298734583</v>
+        <v>-0.001198067713993922</v>
       </c>
       <c r="D69">
-        <v>0.009195476518873862</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00889273801607097</v>
+      </c>
+      <c r="E69">
+        <v>-0.02448767255826102</v>
+      </c>
+      <c r="F69">
+        <v>0.0007091333152238578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06494833926993737</v>
+        <v>0.06639098646782625</v>
       </c>
       <c r="C70">
-        <v>0.02331654037243993</v>
+        <v>0.02752037306383662</v>
       </c>
       <c r="D70">
-        <v>-0.02505628566497084</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02513503530797229</v>
+      </c>
+      <c r="E70">
+        <v>0.03194134707491132</v>
+      </c>
+      <c r="F70">
+        <v>-0.1863123411841678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1199193519600145</v>
+        <v>0.1363312177167832</v>
       </c>
       <c r="C71">
-        <v>-0.02062758858034089</v>
+        <v>-0.03744856297395998</v>
       </c>
       <c r="D71">
-        <v>-0.2953041684388137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2724782165520019</v>
+      </c>
+      <c r="E71">
+        <v>0.09740856588304747</v>
+      </c>
+      <c r="F71">
+        <v>0.007795684227231353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1379903587716412</v>
+        <v>0.14249975535802</v>
       </c>
       <c r="C72">
-        <v>-0.02676243610942324</v>
+        <v>-0.02719315246601615</v>
       </c>
       <c r="D72">
-        <v>0.003235203531709377</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003025937350742304</v>
+      </c>
+      <c r="E72">
+        <v>-0.03731633240824565</v>
+      </c>
+      <c r="F72">
+        <v>0.03244965461586275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2062682774425509</v>
+        <v>0.2040434787513694</v>
       </c>
       <c r="C73">
-        <v>-0.01440372900041355</v>
+        <v>-0.01297306995159331</v>
       </c>
       <c r="D73">
-        <v>0.02884023108262806</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01649125260564534</v>
+      </c>
+      <c r="E73">
+        <v>-0.06243081688496883</v>
+      </c>
+      <c r="F73">
+        <v>0.03823408351851108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09215196235141089</v>
+        <v>0.09474649353500905</v>
       </c>
       <c r="C74">
-        <v>-0.01257975913690824</v>
+        <v>-0.01338609128663054</v>
       </c>
       <c r="D74">
-        <v>0.03140043954725914</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01650912609432302</v>
+      </c>
+      <c r="E74">
+        <v>-0.0438719644602476</v>
+      </c>
+      <c r="F74">
+        <v>0.05827280158274668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1343465770929372</v>
+        <v>0.1274588737597036</v>
       </c>
       <c r="C75">
-        <v>-0.02884318288579567</v>
+        <v>-0.02832565274383694</v>
       </c>
       <c r="D75">
-        <v>0.03913948924811554</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03043559809119554</v>
+      </c>
+      <c r="E75">
+        <v>-0.05819770665226194</v>
+      </c>
+      <c r="F75">
+        <v>0.02300898280832754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08327784250047685</v>
+        <v>0.08893536152408039</v>
       </c>
       <c r="C77">
-        <v>-0.01634120081445455</v>
+        <v>-0.008123030942173412</v>
       </c>
       <c r="D77">
-        <v>0.0980229305008127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1128637441315832</v>
+      </c>
+      <c r="E77">
+        <v>-0.04180320997630949</v>
+      </c>
+      <c r="F77">
+        <v>0.03435019904033387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1050320018075035</v>
+        <v>0.1002522998064621</v>
       </c>
       <c r="C78">
-        <v>-0.04781945154213641</v>
+        <v>-0.03932757122831309</v>
       </c>
       <c r="D78">
-        <v>0.1027882112676502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1140180777424518</v>
+      </c>
+      <c r="E78">
+        <v>-0.07367253581649844</v>
+      </c>
+      <c r="F78">
+        <v>0.05029185539505845</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1650184862640643</v>
+        <v>0.1636838473419247</v>
       </c>
       <c r="C79">
-        <v>-0.02289248691804483</v>
+        <v>-0.0230625416396408</v>
       </c>
       <c r="D79">
-        <v>0.0176514522683216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01471239340466993</v>
+      </c>
+      <c r="E79">
+        <v>-0.04641888003242466</v>
+      </c>
+      <c r="F79">
+        <v>0.01236617857831209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08759842420168187</v>
+        <v>0.08188724901169063</v>
       </c>
       <c r="C80">
-        <v>-0.002122359891870589</v>
+        <v>0.001045253706332256</v>
       </c>
       <c r="D80">
-        <v>0.04728481891265184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05714971348049093</v>
+      </c>
+      <c r="E80">
+        <v>-0.03596589201148937</v>
+      </c>
+      <c r="F80">
+        <v>-0.02289810351750753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1192703946551195</v>
+        <v>0.1186670528013502</v>
       </c>
       <c r="C81">
-        <v>-0.03042321870968707</v>
+        <v>-0.03188926055511231</v>
       </c>
       <c r="D81">
-        <v>0.04201327526022838</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01584089363053131</v>
+      </c>
+      <c r="E81">
+        <v>-0.05773308351618451</v>
+      </c>
+      <c r="F81">
+        <v>0.01948623525535689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1652639396596984</v>
+        <v>0.1651587035761324</v>
       </c>
       <c r="C82">
-        <v>-0.02286957186629049</v>
+        <v>-0.02490414594407961</v>
       </c>
       <c r="D82">
-        <v>0.0292028530214797</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003898862708248661</v>
+      </c>
+      <c r="E82">
+        <v>-0.0265245585611659</v>
+      </c>
+      <c r="F82">
+        <v>0.08187642502984213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06829233121082967</v>
+        <v>0.05860941554881102</v>
       </c>
       <c r="C83">
-        <v>-0.006992499290647223</v>
+        <v>-0.002771837532306391</v>
       </c>
       <c r="D83">
-        <v>0.02391058586244591</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05056538873288147</v>
+      </c>
+      <c r="E83">
+        <v>-0.00303446451897175</v>
+      </c>
+      <c r="F83">
+        <v>-0.0293755030642158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06569643168414153</v>
+        <v>0.05985443128892484</v>
       </c>
       <c r="C84">
-        <v>-0.0152832338042461</v>
+        <v>-0.01136490848114555</v>
       </c>
       <c r="D84">
-        <v>0.05733497226611996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06265622970436414</v>
+      </c>
+      <c r="E84">
+        <v>-0.007061332099081222</v>
+      </c>
+      <c r="F84">
+        <v>0.00526582770774943</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1380067798196792</v>
+        <v>0.1356959619183191</v>
       </c>
       <c r="C85">
-        <v>-0.02766549669445209</v>
+        <v>-0.02833185731226496</v>
       </c>
       <c r="D85">
-        <v>0.02289777286684651</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009071183554302031</v>
+      </c>
+      <c r="E85">
+        <v>-0.03652545859254012</v>
+      </c>
+      <c r="F85">
+        <v>0.04784179700644513</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1007947135750979</v>
+        <v>0.09438069403919773</v>
       </c>
       <c r="C86">
-        <v>0.0008046466061369425</v>
+        <v>0.005644961174059829</v>
       </c>
       <c r="D86">
-        <v>-0.04006034409111178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04334624850165653</v>
+      </c>
+      <c r="E86">
+        <v>-0.2285254987586356</v>
+      </c>
+      <c r="F86">
+        <v>-0.9040363321547488</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1014965159551738</v>
+        <v>0.09451257025828401</v>
       </c>
       <c r="C87">
-        <v>-0.02973299958635718</v>
+        <v>-0.01924789683254916</v>
       </c>
       <c r="D87">
-        <v>0.06193122668072938</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09404383667932915</v>
+      </c>
+      <c r="E87">
+        <v>0.05364073450850154</v>
+      </c>
+      <c r="F87">
+        <v>0.04616483842833722</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05943180770514948</v>
+        <v>0.06039332712512277</v>
       </c>
       <c r="C88">
-        <v>-0.006020781185658115</v>
+        <v>-0.002119313348307053</v>
       </c>
       <c r="D88">
-        <v>0.04738215333207436</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05007199694671633</v>
+      </c>
+      <c r="E88">
+        <v>-0.02461236344664641</v>
+      </c>
+      <c r="F88">
+        <v>0.01430450178217011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1157747461383294</v>
+        <v>0.1288819555648406</v>
       </c>
       <c r="C89">
-        <v>0.001182591857684607</v>
+        <v>-0.01345606412237852</v>
       </c>
       <c r="D89">
-        <v>-0.2747465581107842</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2455534170178326</v>
+      </c>
+      <c r="E89">
+        <v>0.08940222111734614</v>
+      </c>
+      <c r="F89">
+        <v>-0.009787701722756543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1306230131810285</v>
+        <v>0.1512387892223372</v>
       </c>
       <c r="C90">
-        <v>-0.01747000529494634</v>
+        <v>-0.03425247178680208</v>
       </c>
       <c r="D90">
-        <v>-0.2905812339610052</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2711488662742147</v>
+      </c>
+      <c r="E90">
+        <v>0.1140431045428903</v>
+      </c>
+      <c r="F90">
+        <v>-0.009200899965877897</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1194908647523799</v>
+        <v>0.1215001437506067</v>
       </c>
       <c r="C91">
-        <v>-0.01755855050317385</v>
+        <v>-0.02007156928435885</v>
       </c>
       <c r="D91">
-        <v>0.0003607058075840754</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01550375067714572</v>
+      </c>
+      <c r="E91">
+        <v>-0.05568368101049723</v>
+      </c>
+      <c r="F91">
+        <v>0.0004102112006873742</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.137983070006711</v>
+        <v>0.1476975774036035</v>
       </c>
       <c r="C92">
-        <v>-0.00593045066911406</v>
+        <v>-0.02483685417426227</v>
       </c>
       <c r="D92">
-        <v>-0.3183395925482523</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.291020331195977</v>
+      </c>
+      <c r="E92">
+        <v>0.1015642475159311</v>
+      </c>
+      <c r="F92">
+        <v>-0.01333808258873319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1351458532574957</v>
+        <v>0.1512276124653853</v>
       </c>
       <c r="C93">
-        <v>-0.01321356642854639</v>
+        <v>-0.02926930006080953</v>
       </c>
       <c r="D93">
-        <v>-0.2797271106068767</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2677664569570996</v>
+      </c>
+      <c r="E93">
+        <v>0.07826883819891095</v>
+      </c>
+      <c r="F93">
+        <v>0.001824823808996592</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1350788353131908</v>
+        <v>0.1284166115172714</v>
       </c>
       <c r="C94">
-        <v>-0.02592301326222793</v>
+        <v>-0.02474144664383249</v>
       </c>
       <c r="D94">
-        <v>0.05772992150751383</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04147237215544734</v>
+      </c>
+      <c r="E94">
+        <v>-0.05778716082293021</v>
+      </c>
+      <c r="F94">
+        <v>0.03666772540572482</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1291173707117342</v>
+        <v>0.126900520627655</v>
       </c>
       <c r="C95">
-        <v>-0.01142574483113169</v>
+        <v>-0.00331069153584121</v>
       </c>
       <c r="D95">
-        <v>0.07017901867132847</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09489503935696908</v>
+      </c>
+      <c r="E95">
+        <v>-0.0501607091250994</v>
+      </c>
+      <c r="F95">
+        <v>-0.007911376824487396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1124166485518023</v>
+        <v>0.1096201153591637</v>
       </c>
       <c r="C96">
-        <v>0.9882936555162175</v>
+        <v>0.9870428230725288</v>
       </c>
       <c r="D96">
-        <v>0.009648063852481167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05162851064227456</v>
+      </c>
+      <c r="E96">
+        <v>-0.05276727215789724</v>
+      </c>
+      <c r="F96">
+        <v>0.04256518316964437</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1887338747906459</v>
+        <v>0.1905930909082335</v>
       </c>
       <c r="C97">
-        <v>0.006790029817633328</v>
+        <v>0.007007690585171405</v>
       </c>
       <c r="D97">
-        <v>-0.0389670386127473</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01918235412214231</v>
+      </c>
+      <c r="E97">
+        <v>-0.02231290165578897</v>
+      </c>
+      <c r="F97">
+        <v>-0.0943991487588709</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.196990781643339</v>
+        <v>0.2058702031261872</v>
       </c>
       <c r="C98">
-        <v>-0.01026101498147697</v>
+        <v>-0.00721683371733959</v>
       </c>
       <c r="D98">
-        <v>0.002768939326638888</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0132220329512739</v>
+      </c>
+      <c r="E98">
+        <v>0.077048504478834</v>
+      </c>
+      <c r="F98">
+        <v>-0.09105336996133863</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05649410082805103</v>
+        <v>0.054841382304993</v>
       </c>
       <c r="C99">
-        <v>0.00181350821733813</v>
+        <v>0.004474968006810835</v>
       </c>
       <c r="D99">
-        <v>0.02131366569587279</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03924399505940913</v>
+      </c>
+      <c r="E99">
+        <v>-0.02191959297317464</v>
+      </c>
+      <c r="F99">
+        <v>0.003266188002995425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1349714859343294</v>
+        <v>0.1283880601022747</v>
       </c>
       <c r="C100">
-        <v>0.02878641419052538</v>
+        <v>0.0532590103166877</v>
       </c>
       <c r="D100">
-        <v>0.3554320018672706</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3462897036114625</v>
+      </c>
+      <c r="E100">
+        <v>0.8859397958001203</v>
+      </c>
+      <c r="F100">
+        <v>-0.157242691686341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02673853397505866</v>
+        <v>0.02853982314387174</v>
       </c>
       <c r="C101">
-        <v>-0.009952501242161994</v>
+        <v>-0.008711627379520892</v>
       </c>
       <c r="D101">
-        <v>0.01998490006920845</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03080114115302015</v>
+      </c>
+      <c r="E101">
+        <v>-0.01287363561995225</v>
+      </c>
+      <c r="F101">
+        <v>-0.01457635374195416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
